--- a/MavenFramework/kinduct.xlsx
+++ b/MavenFramework/kinduct.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1055" count="183">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -3177,6 +3177,9 @@
   </si>
   <si>
     <t>EXPECTED RESULT</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -4926,20 +4929,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.3333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="64.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="70.8516" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5" style="1" customWidth="1"/>
-    <col min="14" max="256" width="17.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="14.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="32.3516" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="32.3516" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="64.3516" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="14.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="14.5" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="14.5" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="70.8516" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="14.5" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="14.5" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="14.5" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="14.5" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="14.5" collapsed="true"/>
+    <col min="14" max="256" customWidth="true" style="1" width="17.3516" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.25" customHeight="1">
@@ -9833,17 +9836,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.3333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6" style="16" customWidth="1"/>
-    <col min="2" max="2" width="34.6719" style="16" customWidth="1"/>
-    <col min="3" max="3" width="5.5" style="16" customWidth="1"/>
-    <col min="4" max="4" width="76.1719" style="16" customWidth="1"/>
-    <col min="5" max="5" width="68.6719" style="16" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="16" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="16" customWidth="1"/>
-    <col min="8" max="8" width="16.3516" style="16" customWidth="1"/>
-    <col min="9" max="9" width="16.3516" style="16" customWidth="1"/>
-    <col min="10" max="10" width="16.3516" style="16" customWidth="1"/>
-    <col min="11" max="256" width="17.3516" style="16" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="16" width="6.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="16" width="34.6719" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="16" width="5.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="16" width="76.1719" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="16" width="68.6719" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="16" width="16.3516" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="16" width="16.3516" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="16" width="16.3516" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="16" width="16.3516" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="16" width="16.3516" collapsed="true"/>
+    <col min="11" max="256" customWidth="true" style="16" width="17.3516" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
@@ -25936,12 +25939,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.3333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="27.6719" style="46" customWidth="1"/>
-    <col min="2" max="2" width="14" style="46" customWidth="1"/>
-    <col min="3" max="3" width="40.5" style="46" customWidth="1"/>
-    <col min="4" max="4" width="46.1719" style="46" customWidth="1"/>
-    <col min="5" max="5" width="17.3516" style="46" customWidth="1"/>
-    <col min="6" max="256" width="17.3516" style="46" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="46" width="27.6719" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="46" width="14.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="46" width="40.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="46" width="46.1719" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="46" width="17.3516" collapsed="true"/>
+    <col min="6" max="256" customWidth="true" style="46" width="17.3516" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.65" customHeight="1">
@@ -26033,7 +26036,9 @@
       <c r="D7" t="s" s="27">
         <v>555</v>
       </c>
-      <c r="E7" s="51"/>
+      <c r="E7" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="8" ht="13.65" customHeight="1">
       <c r="A8" s="26"/>
@@ -26046,14 +26051,18 @@
       <c r="D8" t="s" s="27">
         <v>670</v>
       </c>
-      <c r="E8" s="51"/>
+      <c r="E8" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="9" ht="13.65" customHeight="1">
       <c r="A9" s="29"/>
       <c r="B9" s="30"/>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
-      <c r="E9" s="51"/>
+      <c r="E9" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="10" ht="24.65" customHeight="1">
       <c r="A10" t="s" s="33">
@@ -30533,12 +30542,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.3333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="24.8516" style="54" customWidth="1"/>
-    <col min="2" max="2" width="13" style="54" customWidth="1"/>
-    <col min="3" max="3" width="43.6719" style="54" customWidth="1"/>
-    <col min="4" max="4" width="61.5" style="54" customWidth="1"/>
-    <col min="5" max="5" width="17.3516" style="54" customWidth="1"/>
-    <col min="6" max="256" width="17.3516" style="54" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="54" width="24.8516" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="54" width="13.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="54" width="43.6719" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="54" width="61.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="54" width="17.3516" collapsed="true"/>
+    <col min="6" max="256" customWidth="true" style="54" width="17.3516" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.65" customHeight="1">
@@ -36159,16 +36168,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.3333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.8516" style="55" customWidth="1"/>
-    <col min="2" max="2" width="12.1719" style="55" customWidth="1"/>
-    <col min="3" max="3" width="40.1719" style="55" customWidth="1"/>
-    <col min="4" max="4" width="58.5" style="55" customWidth="1"/>
-    <col min="5" max="5" width="17.3516" style="55" customWidth="1"/>
-    <col min="6" max="6" width="17.3516" style="55" customWidth="1"/>
-    <col min="7" max="7" width="17.3516" style="55" customWidth="1"/>
-    <col min="8" max="8" width="17.3516" style="55" customWidth="1"/>
-    <col min="9" max="9" width="17.3516" style="55" customWidth="1"/>
-    <col min="10" max="256" width="17.3516" style="55" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="55" width="19.8516" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="55" width="12.1719" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="55" width="40.1719" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="55" width="58.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="55" width="17.3516" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="55" width="17.3516" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="55" width="17.3516" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="55" width="17.3516" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="55" width="17.3516" collapsed="true"/>
+    <col min="10" max="256" customWidth="true" style="55" width="17.3516" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.65" customHeight="1">
@@ -36203,7 +36212,9 @@
       <c r="D2" t="s" s="24">
         <v>544</v>
       </c>
-      <c r="E2" s="57"/>
+      <c r="E2" t="s">
+        <v>1054</v>
+      </c>
       <c r="F2" s="58"/>
       <c r="G2" s="58"/>
       <c r="H2" s="58"/>
@@ -36220,7 +36231,9 @@
       <c r="D3" t="s" s="27">
         <v>547</v>
       </c>
-      <c r="E3" s="57"/>
+      <c r="E3" t="s">
+        <v>1054</v>
+      </c>
       <c r="F3" s="58"/>
       <c r="G3" s="58"/>
       <c r="H3" s="58"/>
@@ -36237,7 +36250,9 @@
       <c r="D4" t="s" s="27">
         <v>550</v>
       </c>
-      <c r="E4" s="57"/>
+      <c r="E4" t="s">
+        <v>1054</v>
+      </c>
       <c r="F4" s="58"/>
       <c r="G4" s="58"/>
       <c r="H4" s="58"/>
@@ -36254,7 +36269,9 @@
       <c r="D5" t="s" s="27">
         <v>553</v>
       </c>
-      <c r="E5" s="57"/>
+      <c r="E5" t="s">
+        <v>1054</v>
+      </c>
       <c r="F5" s="58"/>
       <c r="G5" s="58"/>
       <c r="H5" s="58"/>
@@ -36284,7 +36301,9 @@
       <c r="D7" t="s" s="27">
         <v>555</v>
       </c>
-      <c r="E7" s="57"/>
+      <c r="E7" t="s">
+        <v>1054</v>
+      </c>
       <c r="F7" s="58"/>
       <c r="G7" s="58"/>
       <c r="H7" s="58"/>
@@ -36301,7 +36320,9 @@
       <c r="D8" t="s" s="27">
         <v>557</v>
       </c>
-      <c r="E8" s="57"/>
+      <c r="E8" t="s">
+        <v>1054</v>
+      </c>
       <c r="F8" s="58"/>
       <c r="G8" s="58"/>
       <c r="H8" s="58"/>
@@ -36318,7 +36339,9 @@
       <c r="D9" t="s" s="27">
         <v>559</v>
       </c>
-      <c r="E9" s="57"/>
+      <c r="E9" t="s">
+        <v>1054</v>
+      </c>
       <c r="F9" s="58"/>
       <c r="G9" s="58"/>
       <c r="H9" s="58"/>
@@ -36535,7 +36558,9 @@
       <c r="D22" t="s" s="27">
         <v>588</v>
       </c>
-      <c r="E22" s="57"/>
+      <c r="E22" t="s">
+        <v>1054</v>
+      </c>
       <c r="F22" s="58"/>
       <c r="G22" s="58"/>
       <c r="H22" s="58"/>
@@ -36552,7 +36577,9 @@
       <c r="D23" t="s" s="27">
         <v>590</v>
       </c>
-      <c r="E23" s="57"/>
+      <c r="E23" t="s">
+        <v>1054</v>
+      </c>
       <c r="F23" s="58"/>
       <c r="G23" s="58"/>
       <c r="H23" s="58"/>
@@ -36569,7 +36596,9 @@
       <c r="D24" t="s" s="27">
         <v>592</v>
       </c>
-      <c r="E24" s="57"/>
+      <c r="E24" t="s">
+        <v>1054</v>
+      </c>
       <c r="F24" s="58"/>
       <c r="G24" s="58"/>
       <c r="H24" s="58"/>
@@ -36586,7 +36615,9 @@
       <c r="D25" t="s" s="27">
         <v>594</v>
       </c>
-      <c r="E25" s="57"/>
+      <c r="E25" t="s">
+        <v>1054</v>
+      </c>
       <c r="F25" s="58"/>
       <c r="G25" s="58"/>
       <c r="H25" s="58"/>
